--- a/downloaded_files/SBES250_Tutorial-35357.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35357.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,40 +33,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4200368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد علي كمال عويس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Ali Kamal Ewis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسل أحمد حماد الشحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bassel ahmed hammad el shahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسل بهاء السيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Basel Bahaa Alsayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جهاد خميس محمود مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gehad khamis Mahmoud Morad</x:t>
+    <x:t>1220229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة عمرو مصطفى عبد الصالح عرابي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumana Amr Moustafa Abd ElSaleh Orabi</x:t>
   </x:si>
   <x:si>
     <x:t>1210215</x:t>
@@ -78,51 +51,6 @@
     <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
   </x:si>
   <x:si>
-    <x:t>4230192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه ممدوح محمد على سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Mamdoh Mohamed Ali Sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزه احمد هاشم حموده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza ahmaed hashem hamouda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد محمد خالد احمد زين الدين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Mohamed Khaled Ahmed Zain El/Dein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خديجة على على الفقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khadiga ali ali elfeky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد أحمد عبدالحميد ابراهيم النادى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210100</x:t>
   </x:si>
   <x:si>
@@ -132,24 +60,6 @@
     <x:t>Zeyad Khaled Badry Jadallah</x:t>
   </x:si>
   <x:si>
-    <x:t>1210056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد عيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Eid Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيله احمد على حنفى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200324</x:t>
   </x:si>
   <x:si>
@@ -168,15 +78,6 @@
     <x:t>seif mohamed sayed hashem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن أسامة حسين محمد حماد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Osama Hussien Mohamed Hammad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220183</x:t>
   </x:si>
   <x:si>
@@ -186,24 +87,6 @@
     <x:t>Abdulla Mohamed Bekhit Abdel Azeem Nussir</x:t>
   </x:si>
   <x:si>
-    <x:t>1210106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر خالد سيف الله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omr Khaled Seif Allah Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210107</x:t>
   </x:si>
   <x:si>
@@ -222,24 +105,6 @@
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر نبيل شحاتة محمد حبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mohamed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210273</x:t>
   </x:si>
   <x:si>
@@ -249,42 +114,6 @@
     <x:t>Amr Yasser Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>4220132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>غادة طارق على البغدادى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghada Tarek Ali  El-Boghdady</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>غزل حسام الدين رضوان عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كارولين ايهاب صبحى فكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caroline Ehab Sobhy Fekry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد القاسم احمد الجميل احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed ElKassem Ahmed Elgamil Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200245</x:t>
   </x:si>
   <x:si>
@@ -294,15 +123,6 @@
     <x:t>Mohamed Ayman Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1210396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220099</x:t>
   </x:si>
   <x:si>
@@ -321,33 +141,6 @@
     <x:t>Mohammed Hossam Ahmed Ismail Ahmed Zaky</x:t>
   </x:si>
   <x:si>
-    <x:t>4230197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد مصطفى احمد عبدالرازق على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mostafa Ahmed abdelrazek Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد عبدالفتاح السيد متولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد محمود نصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220100</x:t>
   </x:si>
   <x:si>
@@ -375,15 +168,6 @@
     <x:t>Malak Osama Abdulhameed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منه هشام رجب علام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna Hesham Ragab Allam</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210084</x:t>
   </x:si>
   <x:si>
@@ -393,15 +177,6 @@
     <x:t>Mehrati Sameh Milad Bebawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210120</x:t>
   </x:si>
   <x:si>
@@ -409,24 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا محمود محمد الصادق محمد عبدالمتعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Mahmoud Mohamed Elsadek Mohamed Abdelmotaal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي زكريا فوزي أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210168</x:t>
@@ -560,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -869,8 +626,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.100625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.810625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -951,7 +708,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.7169549421</x:v>
+        <x:v>45927.454365544</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -983,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.666002662</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1015,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4145908912</x:v>
+        <x:v>45927.4674986921</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1047,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1079,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1111,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.668796412</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1143,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45906.4153455208</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45927.5260239236</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45927.4803576389</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45927.5054733449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1545,870 +1302,6 @@
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
     </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6659766204</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4156383102</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6650606481</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.669274456</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4153455208</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.4144965625</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4151491898</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.664687419</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6813268519</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6669674421</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6645733449</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4157087616</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4160790162</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.6653831018</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.4150845718</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45909.4158375347</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4200395833</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.5663584144</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4168425926</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45907.4371306366</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.4145290509</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.667694213</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.6658353009</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.4169562847</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45907.415450081</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45906.4156043171</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45912.3050480324</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2421,9 +1314,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : [18202]18202-60-الجيزة الرئيسي Time : Thursday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES250_Tutorial-35357.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35357.xlsx
@@ -900,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45927.7269025463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/SBES250_Tutorial-35357.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35357.xlsx
@@ -868,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45928.8164965278</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>

--- a/downloaded_files/SBES250_Tutorial-35357.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35357.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي زكريا فوزي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210168</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45929.4040695949</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45929.5954672106</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.5054733449</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.5054733449</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES250_Tutorial-35357.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35357.xlsx
@@ -129,7 +129,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -147,7 +147,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1210378</x:t>
